--- a/德育导师名单.xlsx
+++ b/德育导师名单.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="525">
   <si>
     <t>计算机科学与技术学院、软件学院德育导师名单</t>
   </si>
@@ -584,6 +597,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>jwwzjut@zjut.edu.cn</t>
     </r>
     <r>
@@ -786,6 +804,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>xiaoyingliu@zjut.edu.cn</t>
     </r>
     <r>
@@ -963,6 +987,9 @@
     <t>孙昊浩</t>
   </si>
   <si>
+    <t>。</t>
+  </si>
+  <si>
     <t>郑建炜</t>
   </si>
   <si>
@@ -1453,13 +1480,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>健</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>B213</t>
@@ -1557,13 +1588,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>健</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>B212</t>
@@ -1633,7 +1668,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1651,7 +1686,6 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1663,19 +1697,16 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1687,7 +1718,6 @@
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1700,7 +1730,6 @@
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1729,7 +1758,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1754,36 +1782,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1799,14 +1798,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1846,6 +1837,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,7 +1902,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,7 +1931,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -1917,55 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,31 +1967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,6 +2003,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2043,7 +2027,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,7 +2075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,6 +2106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,21 +2153,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2170,6 +2181,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2228,153 +2254,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2392,9 +2418,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2418,10 +2441,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2450,89 +2469,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2545,30 +2508,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2584,27 +2529,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2621,52 +2547,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规_Sheet1" xfId="49"/>
@@ -2940,277 +2866,271 @@
   <sheetPr/>
   <dimension ref="A1:IS209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="H199" sqref="H199"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.8796296296296" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="16" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A3" s="24">
+    <row r="3" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>85290116</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A4" s="24">
+    </row>
+    <row r="4" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>85290397</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A5" s="24">
+    </row>
+    <row r="5" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="24">
         <v>85290809</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="27"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="24">
         <v>85290115</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A7" s="24">
+    <row r="7" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="24">
         <v>85290215</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="33"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="24">
         <v>85290668</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A9" s="24">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="24">
         <v>85290667</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="35"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="24">
         <v>85290136</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A11" s="24">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <v>85290676</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A12" s="24">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>85290676</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="30"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A13" s="24">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>85290525</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="1"/>
@@ -3461,1302 +3381,1257 @@
       <c r="IR13" s="1"/>
       <c r="IS13" s="1"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A14" s="24">
+    <row r="14" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>85290668</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="27"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A15" s="24">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <v>85290667</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A16" s="24">
+    <row r="16" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>85290136</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A17" s="24">
+    </row>
+    <row r="17" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>85290795</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A18" s="24">
+    </row>
+    <row r="18" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A18" s="21">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>85290715</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="38"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <v>85290085</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A20" s="24">
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A20" s="21">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="29">
         <v>85290681</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A21" s="24">
+    </row>
+    <row r="21" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="24">
         <v>85290715</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A22" s="24">
+    </row>
+    <row r="22" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <v>85290122</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A23" s="24">
+    </row>
+    <row r="23" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A23" s="21">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>85290681</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A24" s="24">
+    </row>
+    <row r="24" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>85290665</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A25" s="24">
+    </row>
+    <row r="25" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A25" s="21">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="24">
         <v>85290122</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A26" s="24">
+    </row>
+    <row r="26" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A26" s="21">
         <v>24</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="24">
         <v>85290085</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" s="7" customFormat="1" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A27" s="24">
+    </row>
+    <row r="27" s="6" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A27" s="21">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="29">
         <v>85290665</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" s="7" customFormat="1" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A28" s="24">
+    </row>
+    <row r="28" s="6" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A28" s="21">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="29">
         <v>85290122</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" s="7" customFormat="1" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A29" s="24">
+    </row>
+    <row r="29" s="6" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A29" s="21">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="29">
         <v>88320571</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:7">
-      <c r="A30" s="24">
+    </row>
+    <row r="30" s="7" customFormat="1" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="29">
         <v>85290665</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:7">
-      <c r="A31" s="24">
+    </row>
+    <row r="31" s="7" customFormat="1" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A31" s="21">
         <v>29</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="29">
         <v>85290122</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:7">
-      <c r="A32" s="24">
+    </row>
+    <row r="32" s="7" customFormat="1" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="24">
         <v>88320571</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A33" s="24">
+    </row>
+    <row r="33" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A33" s="21">
         <v>31</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="29">
         <v>85290515</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="46"/>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A34" s="24">
+    </row>
+    <row r="34" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A34" s="21">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A35" s="24">
+    </row>
+    <row r="35" s="8" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A35" s="21">
         <v>33</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="47"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A36" s="24">
+      <c r="A36" s="21">
         <v>34</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A37" s="24">
+      <c r="A37" s="21">
         <v>35</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="29">
         <v>85290527</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="48"/>
-    </row>
-    <row r="38" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A38" s="24">
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A38" s="21">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A39" s="24">
+    </row>
+    <row r="39" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="24">
         <v>85290138</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="49"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A40" s="24">
+    </row>
+    <row r="40" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A40" s="21">
         <v>38</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="49"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A41" s="24">
+      <c r="A41" s="21">
         <v>39</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A42" s="24">
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A42" s="21">
         <v>40</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="24">
         <v>85290613</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A43" s="24">
+    </row>
+    <row r="43" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A43" s="21">
         <v>41</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="24">
         <v>85290613</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A44" s="24">
+    </row>
+    <row r="44" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A44" s="21">
         <v>42</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A45" s="24">
+    </row>
+    <row r="45" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A45" s="21">
         <v>43</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A46" s="24">
+    </row>
+    <row r="46" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A46" s="21">
         <v>44</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="24"/>
+      <c r="F46" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A47" s="24">
+    </row>
+    <row r="47" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A47" s="21">
         <v>45</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="49"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A48" s="24">
+      <c r="A48" s="21">
         <v>46</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="26" t="s">
+      <c r="E48" s="24"/>
+      <c r="F48" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="34"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A49" s="24">
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A49" s="21">
         <v>47</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="26" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="46"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A50" s="24">
+      <c r="A50" s="21">
         <v>48</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="37" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A51" s="24">
+    <row r="51" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A51" s="21">
         <v>49</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="24"/>
+      <c r="F51" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="49"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A52" s="24">
+    </row>
+    <row r="52" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A52" s="21">
         <v>50</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="29">
         <v>85290527</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="46"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A53" s="24">
+    </row>
+    <row r="53" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A53" s="21">
         <v>51</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="26" t="s">
+      <c r="E53" s="24"/>
+      <c r="F53" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G53" s="49"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A54" s="24">
+      <c r="A54" s="21">
         <v>52</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="24">
         <v>85290034</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A55" s="24">
+      <c r="A55" s="21">
         <v>53</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="26" t="s">
+      <c r="E55" s="24"/>
+      <c r="F55" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="36"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A56" s="24">
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A56" s="21">
         <v>54</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="26" t="s">
+      <c r="E56" s="24"/>
+      <c r="F56" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="49"/>
-    </row>
-    <row r="57" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A57" s="24">
+    </row>
+    <row r="57" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A57" s="21">
         <v>55</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="24">
         <v>85290034</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G57" s="27"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A58" s="24">
+      <c r="A58" s="21">
         <v>56</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="26" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="34"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A59" s="24">
+      <c r="A59" s="21">
         <v>57</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="37" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="48"/>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A60" s="24">
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A60" s="21">
         <v>58</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="37" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="G60" s="30"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A61" s="24">
+      <c r="A61" s="21">
         <v>59</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="37" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A62" s="24">
+      <c r="A62" s="21">
         <v>60</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="37" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A63" s="24">
+      <c r="A63" s="21">
         <v>61</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="42" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="36"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A64" s="24">
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A64" s="21">
         <v>62</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="26" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G64" s="49"/>
-    </row>
-    <row r="65" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A65" s="24">
+    </row>
+    <row r="65" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A65" s="21">
         <v>63</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="24">
         <v>85290085</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G65" s="52"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A66" s="24">
+      <c r="A66" s="21">
         <v>64</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="26" t="s">
+      <c r="E66" s="24"/>
+      <c r="F66" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="36"/>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A67" s="24">
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A67" s="21">
         <v>65</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="29">
         <v>85290529</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G67" s="27"/>
-    </row>
-    <row r="68" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A68" s="24">
+    </row>
+    <row r="68" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A68" s="21">
         <v>66</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="26" t="s">
+      <c r="E68" s="24"/>
+      <c r="F68" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="53"/>
-    </row>
-    <row r="69" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A69" s="24">
+    </row>
+    <row r="69" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A69" s="21">
         <v>67</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="26" t="s">
+      <c r="E69" s="24"/>
+      <c r="F69" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="54"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A70" s="24">
+      <c r="A70" s="21">
         <v>68</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="26" t="s">
+      <c r="E70" s="24"/>
+      <c r="F70" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G70" s="36"/>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A71" s="24">
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A71" s="21">
         <v>69</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="26" t="s">
+      <c r="E71" s="24"/>
+      <c r="F71" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="30"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A72" s="24">
+      <c r="A72" s="21">
         <v>70</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26" t="s">
+      <c r="E72" s="24"/>
+      <c r="F72" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G72" s="48"/>
-    </row>
-    <row r="73" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A73" s="24">
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A73" s="21">
         <v>71</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="42" t="s">
+      <c r="E73" s="24"/>
+      <c r="F73" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G73" s="27"/>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A74" s="24">
+    </row>
+    <row r="74" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A74" s="21">
         <v>72</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="26" t="s">
+      <c r="E74" s="24"/>
+      <c r="F74" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="27"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A75" s="24">
+      <c r="A75" s="21">
         <v>73</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="26" t="s">
+      <c r="E75" s="24"/>
+      <c r="F75" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="48"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A76" s="24">
+      <c r="A76" s="21">
         <v>74</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="26" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A77" s="24">
+      <c r="A77" s="21">
         <v>75</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="21">
         <v>85290172</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="36"/>
-    </row>
-    <row r="78" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A78" s="24">
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A78" s="21">
         <v>76</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="26" t="s">
+      <c r="E78" s="24"/>
+      <c r="F78" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="55"/>
     </row>
     <row r="79" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A79" s="24">
+      <c r="A79" s="21">
         <v>77</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="26" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="23" t="s">
         <v>205</v>
       </c>
       <c r="G79" s="1"/>
@@ -5008,18 +4883,18 @@
       <c r="IS79" s="1"/>
     </row>
     <row r="80" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A80" s="24">
+      <c r="A80" s="21">
         <v>78</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="26" t="s">
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="23" t="s">
         <v>207</v>
       </c>
       <c r="G80" s="1"/>
@@ -5271,18 +5146,18 @@
       <c r="IS80" s="1"/>
     </row>
     <row r="81" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A81" s="24">
+      <c r="A81" s="21">
         <v>79</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="26" t="s">
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="23" t="s">
         <v>209</v>
       </c>
       <c r="G81" s="1"/>
@@ -5533,1849 +5408,1819 @@
       <c r="IR81" s="1"/>
       <c r="IS81" s="1"/>
     </row>
-    <row r="82" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A82" s="24">
+    <row r="82" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A82" s="21">
         <v>80</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="37" t="s">
+      <c r="E82" s="24"/>
+      <c r="F82" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G82" s="33"/>
-    </row>
-    <row r="83" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A83" s="24">
+    </row>
+    <row r="83" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A83" s="21">
         <v>81</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="37" t="s">
+      <c r="E83" s="24"/>
+      <c r="F83" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="G83" s="27"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A84" s="24">
+      <c r="A84" s="21">
         <v>82</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="26" t="s">
+      <c r="D84" s="35"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G84" s="36"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A85" s="24">
+      <c r="A85" s="21">
         <v>83</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="29">
         <v>85290527</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G85" s="48"/>
-    </row>
-    <row r="86" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A86" s="24">
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A86" s="21">
         <v>84</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="26" t="s">
+      <c r="E86" s="24"/>
+      <c r="F86" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G86" s="33"/>
     </row>
     <row r="87" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A87" s="24">
+      <c r="A87" s="21">
         <v>85</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E87" s="28"/>
-      <c r="F87" s="26" t="s">
+      <c r="E87" s="24"/>
+      <c r="F87" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="88" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A88" s="24">
+    <row r="88" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A88" s="21">
         <v>86</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="29">
         <v>85290527</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="60"/>
-    </row>
-    <row r="89" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A89" s="24">
+    </row>
+    <row r="89" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A89" s="21">
         <v>87</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="26" t="s">
+      <c r="E89" s="24"/>
+      <c r="F89" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="G89" s="61"/>
-    </row>
-    <row r="90" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A90" s="24">
+    </row>
+    <row r="90" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A90" s="21">
         <v>88</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="26" t="s">
+      <c r="E90" s="24"/>
+      <c r="F90" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G90" s="62"/>
-    </row>
-    <row r="91" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A91" s="24">
+    </row>
+    <row r="91" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A91" s="21">
         <v>89</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="29">
         <v>85290527</v>
       </c>
-      <c r="F91" s="26" t="s">
+      <c r="F91" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G91" s="63"/>
-    </row>
-    <row r="92" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A92" s="24">
+    </row>
+    <row r="92" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A92" s="21">
         <v>90</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="37" t="s">
+      <c r="E92" s="37"/>
+      <c r="F92" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="G92" s="63"/>
-    </row>
-    <row r="93" s="14" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A93" s="24">
+    </row>
+    <row r="93" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A93" s="21">
         <v>91</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G93" s="66"/>
-    </row>
-    <row r="94" s="14" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A94" s="24">
+    </row>
+    <row r="94" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A94" s="21">
         <v>92</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="37" t="s">
+      <c r="D94" s="35"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G94" s="66"/>
-    </row>
-    <row r="95" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A95" s="24">
+    </row>
+    <row r="95" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A95" s="21">
         <v>93</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="26" t="s">
+      <c r="E95" s="24"/>
+      <c r="F95" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="G95" s="63"/>
-    </row>
-    <row r="96" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A96" s="24">
+    </row>
+    <row r="96" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A96" s="21">
         <v>94</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="26" t="s">
+      <c r="E96" s="24"/>
+      <c r="F96" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="G96" s="67"/>
-    </row>
-    <row r="97" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A97" s="24">
+    </row>
+    <row r="97" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A97" s="21">
         <v>95</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="37" t="s">
+      <c r="D97" s="35"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="G97" s="62"/>
-    </row>
-    <row r="98" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A98" s="24">
+    </row>
+    <row r="98" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A98" s="21">
         <v>96</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="40"/>
-      <c r="F98" s="26" t="s">
+      <c r="E98" s="29"/>
+      <c r="F98" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="G98" s="61"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A99" s="24">
+      <c r="A99" s="21">
         <v>97</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="26" t="s">
+      <c r="D99" s="24"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="G99" s="48"/>
-    </row>
-    <row r="100" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A100" s="24">
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A100" s="21">
         <v>98</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="26" t="s">
+      <c r="E100" s="24"/>
+      <c r="F100" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="G100" s="30"/>
-    </row>
-    <row r="101" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A101" s="24">
+    </row>
+    <row r="101" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A101" s="21">
         <v>99</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="26" t="s">
+      <c r="E101" s="24"/>
+      <c r="F101" s="23" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="102" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A102" s="24">
+    <row r="102" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A102" s="21">
         <v>100</v>
       </c>
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="26" t="s">
+      <c r="D102" s="35"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="G102" s="63"/>
-    </row>
-    <row r="103" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A103" s="24">
+    </row>
+    <row r="103" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A103" s="21">
         <v>101</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E103" s="28"/>
-      <c r="F103" s="26" t="s">
+      <c r="E103" s="24"/>
+      <c r="F103" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G103" s="34"/>
-    </row>
-    <row r="104" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A104" s="24">
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A104" s="21">
         <v>102</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E104" s="29">
         <v>85290527</v>
       </c>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="G104" s="53"/>
-    </row>
-    <row r="105" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A105" s="24">
+    </row>
+    <row r="105" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A105" s="21">
         <v>103</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="26" t="s">
+      <c r="E105" s="24"/>
+      <c r="F105" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G105" s="63"/>
-    </row>
-    <row r="106" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A106" s="24">
+    </row>
+    <row r="106" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A106" s="21">
         <v>104</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E106" s="28"/>
-      <c r="F106" s="37" t="s">
+      <c r="E106" s="24"/>
+      <c r="F106" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="G106" s="63"/>
-    </row>
-    <row r="107" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A107" s="24">
+    </row>
+    <row r="107" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A107" s="21">
         <v>105</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="37" t="s">
+      <c r="D107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="G107" s="52"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A108" s="24">
+      <c r="A108" s="21">
         <v>106</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="26" t="s">
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="109" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A109" s="24">
+    <row r="109" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A109" s="21">
         <v>107</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="29">
         <v>85290527</v>
       </c>
-      <c r="F109" s="26" t="s">
+      <c r="F109" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="G109" s="63"/>
-    </row>
-    <row r="110" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A110" s="24">
+    </row>
+    <row r="110" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A110" s="21">
         <v>108</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E110" s="40"/>
-      <c r="F110" s="26" t="s">
+      <c r="E110" s="29"/>
+      <c r="F110" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="G110" s="54"/>
-    </row>
-    <row r="111" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A111" s="24">
+    </row>
+    <row r="111" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A111" s="21">
         <v>109</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="C111" s="70" t="s">
+      <c r="C111" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="E111" s="70"/>
-      <c r="F111" s="26" t="s">
+      <c r="E111" s="41"/>
+      <c r="F111" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="112" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A112" s="24">
+    <row r="112" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A112" s="21">
         <v>110</v>
       </c>
-      <c r="B112" s="70" t="s">
+      <c r="B112" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="C112" s="70" t="s">
+      <c r="C112" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="26" t="s">
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="113" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A113" s="24">
+    <row r="113" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A113" s="21">
         <v>111</v>
       </c>
-      <c r="B113" s="71" t="s">
+      <c r="B113" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="70" t="s">
+      <c r="C113" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="26" t="s">
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="114" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A114" s="24">
+    <row r="114" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A114" s="21">
         <v>112</v>
       </c>
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C114" s="70" t="s">
+      <c r="C114" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="26" t="s">
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="115" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A115" s="24">
+    <row r="115" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A115" s="21">
         <v>113</v>
       </c>
-      <c r="B115" s="70" t="s">
+      <c r="B115" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E115" s="70"/>
-      <c r="F115" s="26" t="s">
+      <c r="E115" s="41"/>
+      <c r="F115" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A116" s="24">
+    <row r="116" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A116" s="21">
         <v>114</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="71" t="s">
+      <c r="C116" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="37" t="s">
+      <c r="D116" s="26"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="27" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A117" s="24">
+      <c r="A117" s="21">
         <v>115</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="71" t="s">
+      <c r="C117" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="21">
         <v>85290071</v>
       </c>
-      <c r="F117" s="26" t="s">
+      <c r="F117" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="G117" s="34"/>
-    </row>
-    <row r="118" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A118" s="24">
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A118" s="21">
         <v>116</v>
       </c>
-      <c r="B118" s="70" t="s">
+      <c r="B118" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E118" s="70"/>
-      <c r="F118" s="26" t="s">
+      <c r="E118" s="41"/>
+      <c r="F118" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="119" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A119" s="24">
+    <row r="119" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A119" s="21">
         <v>117</v>
       </c>
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="C119" s="71" t="s">
+      <c r="C119" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="26" t="s">
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="120" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A120" s="24">
+    <row r="120" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A120" s="21">
         <v>118</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C120" s="71" t="s">
+      <c r="C120" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="72" t="s">
+      <c r="D120" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="E120" s="70"/>
-      <c r="F120" s="37" t="s">
+      <c r="E120" s="41"/>
+      <c r="F120" s="27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="121" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A121" s="24">
+    <row r="121" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A121" s="21">
         <v>119</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="B121" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C121" s="71" t="s">
+      <c r="C121" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D121" s="72" t="s">
+      <c r="D121" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="E121" s="70"/>
-      <c r="F121" s="37" t="s">
+      <c r="E121" s="41"/>
+      <c r="F121" s="27" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A122" s="24">
+      <c r="A122" s="21">
         <v>120</v>
       </c>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D122" s="72"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A123" s="24">
+      <c r="D122" s="43"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A123" s="21">
         <v>121</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A124" s="21">
+        <v>122</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A125" s="21">
+        <v>123</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A126" s="21">
+        <v>124</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A127" s="21">
+        <v>125</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A128" s="21">
+        <v>126</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A129" s="21">
+        <v>127</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A130" s="21">
+        <v>128</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A131" s="21">
+        <v>129</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A132" s="21">
+        <v>130</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A133" s="21">
+        <v>131</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A134" s="21">
+        <v>132</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A135" s="21">
+        <v>133</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A136" s="21">
+        <v>134</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A137" s="21">
+        <v>135</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A138" s="21">
+        <v>136</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" s="25"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A139" s="21">
+        <v>137</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" s="25"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A140" s="21">
+        <v>138</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D140" s="25"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A141" s="21">
+        <v>139</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A142" s="21">
+        <v>140</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E142" s="29">
+        <v>85290161</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G142" s="14"/>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A143" s="21">
+        <v>141</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E143" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A144" s="21">
+        <v>142</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E144" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A145" s="21">
+        <v>143</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E145" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="146" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A146" s="21">
+        <v>144</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E146" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A147" s="21">
+        <v>145</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E147" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A148" s="21">
+        <v>146</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E148" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" s="12" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A149" s="21">
+        <v>147</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E149" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A150" s="21">
+        <v>148</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E150" s="24">
+        <v>85290027</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A151" s="21">
+        <v>149</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" s="26"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="27" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A152" s="21">
+        <v>150</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E123" s="28"/>
-      <c r="F123" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A124" s="24">
-        <v>122</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E124" s="28"/>
-      <c r="F124" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="G124" s="49"/>
-    </row>
-    <row r="125" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A125" s="24">
-        <v>123</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D125" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E125" s="28"/>
-      <c r="F125" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="G125" s="55"/>
-    </row>
-    <row r="126" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A126" s="24">
-        <v>124</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E126" s="28"/>
-      <c r="F126" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="G126" s="34"/>
-    </row>
-    <row r="127" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A127" s="24">
-        <v>125</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E127" s="28"/>
-      <c r="F127" s="26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A128" s="24">
-        <v>126</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="G128" s="62"/>
-    </row>
-    <row r="129" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A129" s="24">
-        <v>127</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E129" s="28"/>
-      <c r="F129" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="G129" s="30"/>
-    </row>
-    <row r="130" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A130" s="24">
-        <v>128</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="G130" s="52"/>
-    </row>
-    <row r="131" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A131" s="24">
-        <v>129</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="31" t="s">
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A153" s="21">
+        <v>151</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E153" s="24">
+        <v>56075071</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A154" s="21">
+        <v>152</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E154" s="24">
+        <v>56075072</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A155" s="21">
+        <v>153</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A156" s="21">
+        <v>154</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A157" s="21">
+        <v>155</v>
+      </c>
+      <c r="B157" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E157" s="24">
+        <v>56075072</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A158" s="21">
+        <v>156</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D158" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E131" s="28"/>
-      <c r="F131" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="132" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A132" s="24">
-        <v>130</v>
-      </c>
-      <c r="B132" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E132" s="28"/>
-      <c r="F132" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="G132" s="53"/>
-    </row>
-    <row r="133" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A133" s="24">
-        <v>131</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E133" s="28"/>
-      <c r="F133" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="G133" s="46"/>
-    </row>
-    <row r="134" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A134" s="24">
-        <v>132</v>
-      </c>
-      <c r="B134" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="E134" s="28"/>
-      <c r="F134" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="G134" s="54"/>
-    </row>
-    <row r="135" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A135" s="24">
-        <v>133</v>
-      </c>
-      <c r="B135" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E135" s="28" t="s">
+      <c r="E158" s="24"/>
+      <c r="F158" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A159" s="21">
+        <v>157</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D159" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="F135" s="26" t="s">
+      <c r="E159" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="G135" s="54"/>
-    </row>
-    <row r="136" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A136" s="24">
-        <v>134</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E136" s="28"/>
-      <c r="F136" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G136" s="53"/>
-    </row>
-    <row r="137" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A137" s="24">
-        <v>135</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E137" s="28"/>
-      <c r="F137" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G137" s="46"/>
-    </row>
-    <row r="138" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A138" s="24">
-        <v>136</v>
-      </c>
-      <c r="B138" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D138" s="29"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G138" s="46"/>
-    </row>
-    <row r="139" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A139" s="24">
-        <v>137</v>
-      </c>
-      <c r="B139" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D139" s="29"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="G139" s="49"/>
-    </row>
-    <row r="140" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A140" s="24">
-        <v>138</v>
-      </c>
-      <c r="B140" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D140" s="29"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G140" s="49"/>
-    </row>
-    <row r="141" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A141" s="24">
-        <v>139</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E141" s="50"/>
-      <c r="F141" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="G141" s="49"/>
-    </row>
-    <row r="142" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A142" s="24">
-        <v>140</v>
-      </c>
-      <c r="B142" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E142" s="40">
-        <v>85290161</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G142" s="34"/>
-    </row>
-    <row r="143" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A143" s="24">
-        <v>141</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C143" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E143" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="G143" s="11"/>
-    </row>
-    <row r="144" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A144" s="24">
-        <v>142</v>
-      </c>
-      <c r="B144" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E144" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="G144" s="49"/>
-    </row>
-    <row r="145" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A145" s="24">
-        <v>143</v>
-      </c>
-      <c r="B145" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E145" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F145" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="G145" s="49"/>
-    </row>
-    <row r="146" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A146" s="24">
-        <v>144</v>
-      </c>
-      <c r="B146" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D146" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="G146" s="46"/>
-    </row>
-    <row r="147" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A147" s="24">
-        <v>145</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E147" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G147" s="49"/>
-    </row>
-    <row r="148" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A148" s="24">
-        <v>146</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C148" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E148" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F148" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="G148" s="13"/>
-    </row>
-    <row r="149" s="13" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A149" s="24">
-        <v>147</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E149" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="G149" s="55"/>
-    </row>
-    <row r="150" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A150" s="24">
-        <v>148</v>
-      </c>
-      <c r="B150" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D150" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E150" s="28">
-        <v>85290027</v>
-      </c>
-      <c r="F150" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="G150" s="49"/>
-    </row>
-    <row r="151" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A151" s="24">
-        <v>149</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="C151" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D151" s="31"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="G151" s="15"/>
-    </row>
-    <row r="152" s="15" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A152" s="24">
-        <v>150</v>
-      </c>
-      <c r="B152" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D152" s="31"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="34"/>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A153" s="24">
-        <v>151</v>
-      </c>
-      <c r="B153" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D153" s="31" t="s">
+      <c r="F159" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A160" s="21">
+        <v>158</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C160" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E153" s="28">
-        <v>56075071</v>
-      </c>
-      <c r="F153" s="37" t="s">
+      <c r="D160" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="G153" s="73"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A154" s="24">
-        <v>152</v>
-      </c>
-      <c r="B154" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E154" s="28">
+      <c r="E160" s="24">
         <v>56075072</v>
       </c>
-      <c r="F154" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="G154" s="16"/>
-    </row>
-    <row r="155" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A155" s="24">
-        <v>153</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D155" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E155" s="28"/>
-      <c r="F155" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="156" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A156" s="24">
-        <v>154</v>
-      </c>
-      <c r="B156" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D156" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E156" s="28"/>
-      <c r="F156" s="26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="157" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A157" s="24">
-        <v>155</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E157" s="28">
-        <v>56075072</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="G157" s="35"/>
-    </row>
-    <row r="158" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A158" s="24">
-        <v>156</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E158" s="28"/>
-      <c r="F158" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="G158" s="73"/>
-    </row>
-    <row r="159" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A159" s="24">
-        <v>157</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D159" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E159" s="28" t="s">
+      <c r="F160" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A161" s="21">
+        <v>159</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E161" s="24"/>
+      <c r="F161" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A162" s="21">
+        <v>160</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E162" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A163" s="21">
+        <v>161</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D163" s="26"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A164" s="21">
+        <v>162</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E164" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" s="6" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A165" s="21">
+        <v>163</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E165" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A166" s="21">
+        <v>164</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E166" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A167" s="21">
+        <v>165</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E167" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G167" s="15"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A168" s="21">
+        <v>166</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E168" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G168" s="15"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A169" s="21">
+        <v>167</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E169" s="29">
+        <v>85290385</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G169" s="15"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A170" s="21">
+        <v>168</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A171" s="21">
+        <v>169</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D171" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="F159" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="160" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A160" s="24">
-        <v>158</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="C160" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D160" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="E160" s="28">
-        <v>56075072</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="G160" s="55"/>
-    </row>
-    <row r="161" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A161" s="24">
-        <v>159</v>
-      </c>
-      <c r="B161" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="D161" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E161" s="28"/>
-      <c r="F161" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="G161" s="36"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A162" s="24">
-        <v>160</v>
-      </c>
-      <c r="B162" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D162" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E162" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="G162" s="73"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A163" s="24">
-        <v>161</v>
-      </c>
-      <c r="B163" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D163" s="31"/>
-      <c r="E163" s="40"/>
-      <c r="F163" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G163" s="11"/>
-    </row>
-    <row r="164" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A164" s="24">
-        <v>162</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E164" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F164" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="G164" s="34"/>
-    </row>
-    <row r="165" s="7" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A165" s="24">
-        <v>163</v>
-      </c>
-      <c r="B165" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D165" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E165" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="G165" s="34"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A166" s="24">
-        <v>164</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D166" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E166" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="G166" s="46"/>
-    </row>
-    <row r="167" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A167" s="24">
-        <v>165</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D167" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E167" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A168" s="24">
-        <v>166</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E168" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="G168" s="48"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A169" s="24">
-        <v>167</v>
-      </c>
-      <c r="B169" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D169" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E169" s="40">
-        <v>85290385</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="G169" s="48"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A170" s="24">
-        <v>168</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="C170" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D170" s="31" t="s">
+      <c r="E171" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" s="8" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A172" s="21">
+        <v>170</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="G172" s="15"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A173" s="21">
+        <v>171</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D173" s="26"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G173" s="15"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A174" s="21">
+        <v>172</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E174" s="29">
+        <v>85290527</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G174" s="15"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A175" s="21">
+        <v>173</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G175" s="15"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A176" s="21">
+        <v>174</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C176" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E170" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="F170" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="G170" s="27"/>
-    </row>
-    <row r="171" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A171" s="24">
-        <v>169</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="F171" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="G171" s="47"/>
-    </row>
-    <row r="172" s="9" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A172" s="24">
-        <v>170</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="D172" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E172" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="F172" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="G172" s="48"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A173" s="24">
-        <v>171</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="D173" s="31"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="G173" s="36"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A174" s="24">
-        <v>172</v>
-      </c>
-      <c r="B174" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="D174" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E174" s="40">
-        <v>85290527</v>
-      </c>
-      <c r="F174" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="G174" s="48"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A175" s="24">
-        <v>173</v>
-      </c>
-      <c r="B175" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="D175" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E175" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="G175" s="36"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A176" s="24">
-        <v>174</v>
-      </c>
-      <c r="B176" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="C176" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E176" s="28"/>
-      <c r="F176" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="G176" s="18"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
-      <c r="A177" s="24">
+      <c r="A177" s="21">
         <v>175</v>
       </c>
-      <c r="B177" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="C177" s="50" t="s">
+      <c r="B177" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="C177" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50" t="s">
+      <c r="D177" s="26" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="178" s="16" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A178" s="24">
+      <c r="E177" s="31"/>
+      <c r="F177" s="31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="178" s="14" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
+      <c r="A178" s="21">
         <v>176</v>
       </c>
-      <c r="B178" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="C178" s="28" t="s">
+      <c r="B178" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="C178" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="E178" s="28">
+      <c r="D178" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="E178" s="24">
         <v>85290519</v>
       </c>
-      <c r="F178" s="26" t="s">
-        <v>445</v>
+      <c r="F178" s="23" t="s">
+        <v>446</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="1"/>
@@ -7625,1117 +7470,1069 @@
       <c r="IR178" s="1"/>
       <c r="IS178" s="1"/>
     </row>
-    <row r="179" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A179" s="24">
+    <row r="179" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A179" s="21">
         <v>177</v>
       </c>
-      <c r="B179" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D179" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E179" s="28"/>
-      <c r="F179" s="26" t="s">
+      <c r="B179" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="G179" s="30"/>
-    </row>
-    <row r="180" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A180" s="24">
+      <c r="C179" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E179" s="24"/>
+      <c r="F179" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A180" s="21">
         <v>178</v>
       </c>
-      <c r="B180" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="C180" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D180" s="31" t="s">
+      <c r="B180" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D180" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E180" s="28"/>
-      <c r="F180" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="G180" s="30"/>
-    </row>
-    <row r="181" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A181" s="24">
+      <c r="E180" s="24"/>
+      <c r="F180" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A181" s="21">
         <v>179</v>
       </c>
-      <c r="B181" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="C181" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D181" s="31" t="s">
+      <c r="B181" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E181" s="28">
+      <c r="E181" s="24">
         <v>85290613</v>
       </c>
-      <c r="F181" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="G181" s="27"/>
-    </row>
-    <row r="182" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A182" s="24">
+      <c r="F181" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="182" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A182" s="21">
         <v>180</v>
       </c>
-      <c r="B182" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C182" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D182" s="31" t="s">
+      <c r="B182" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D182" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E182" s="28">
+      <c r="E182" s="24">
         <v>85290613</v>
       </c>
-      <c r="F182" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="G182" s="30"/>
-    </row>
-    <row r="183" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A183" s="24">
+      <c r="F182" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="183" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A183" s="21">
         <v>181</v>
       </c>
-      <c r="B183" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="C183" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D183" s="31" t="s">
+      <c r="B183" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D183" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E183" s="28"/>
-      <c r="F183" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="G183" s="27"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="23" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="184" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A184" s="24">
+      <c r="A184" s="21">
         <v>182</v>
       </c>
-      <c r="B184" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D184" s="31" t="s">
+      <c r="B184" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E184" s="28">
+      <c r="E184" s="24">
         <v>85290613</v>
       </c>
-      <c r="F184" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G184" s="73"/>
+      <c r="F184" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="G184" s="14"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A185" s="24">
+      <c r="A185" s="21">
         <v>183</v>
       </c>
-      <c r="B185" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D185" s="31" t="s">
+      <c r="B185" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D185" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E185" s="28">
+      <c r="E185" s="24">
         <v>85290613</v>
       </c>
-      <c r="F185" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="G185" s="18"/>
+      <c r="F185" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G185" s="15"/>
     </row>
     <row r="186" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A186" s="24">
+      <c r="A186" s="21">
         <v>184</v>
       </c>
-      <c r="B186" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="C186" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D186" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E186" s="28">
+      <c r="B186" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E186" s="24">
         <v>85290027</v>
       </c>
-      <c r="F186" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="G186" s="73"/>
+      <c r="F186" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="G186" s="14"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A187" s="24">
+      <c r="A187" s="21">
         <v>185</v>
       </c>
-      <c r="B187" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D187" s="31"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="26" t="s">
+      <c r="B187" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="G187" s="34"/>
-    </row>
-    <row r="188" s="16" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A188" s="24">
+      <c r="C187" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D187" s="26"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="G187" s="14"/>
+    </row>
+    <row r="188" s="14" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
+      <c r="A188" s="21">
         <v>186</v>
       </c>
-      <c r="B188" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="C188" s="28" t="s">
+      <c r="B188" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="C188" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="E188" s="28"/>
-      <c r="F188" s="37" t="s">
+      <c r="D188" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="G188" s="34"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="27" t="s">
+        <v>468</v>
+      </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="74"/>
-      <c r="K188" s="75"/>
-      <c r="L188" s="76"/>
-      <c r="M188" s="77"/>
-      <c r="N188" s="75"/>
-      <c r="O188" s="76"/>
-      <c r="P188" s="78"/>
-      <c r="Q188" s="76"/>
-      <c r="R188" s="76"/>
-      <c r="S188" s="16"/>
+      <c r="J188" s="44"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="45"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="45"/>
+      <c r="P188" s="47"/>
+      <c r="Q188" s="45"/>
+      <c r="R188" s="45"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
-      <c r="V188" s="74"/>
-      <c r="W188" s="75"/>
-      <c r="X188" s="76"/>
-      <c r="Y188" s="77"/>
-      <c r="Z188" s="75"/>
-      <c r="AA188" s="76"/>
-      <c r="AB188" s="78"/>
-      <c r="AC188" s="76"/>
-      <c r="AD188" s="76"/>
-      <c r="AE188" s="16"/>
+      <c r="V188" s="44"/>
+      <c r="W188" s="28"/>
+      <c r="X188" s="45"/>
+      <c r="Y188" s="46"/>
+      <c r="Z188" s="28"/>
+      <c r="AA188" s="45"/>
+      <c r="AB188" s="47"/>
+      <c r="AC188" s="45"/>
+      <c r="AD188" s="45"/>
       <c r="AF188" s="1"/>
       <c r="AG188" s="1"/>
-      <c r="AH188" s="74"/>
-      <c r="AI188" s="75"/>
-      <c r="AJ188" s="76"/>
-      <c r="AK188" s="77"/>
-      <c r="AL188" s="75"/>
-      <c r="AM188" s="76"/>
-      <c r="AN188" s="78"/>
-      <c r="AO188" s="76"/>
-      <c r="AP188" s="76"/>
-      <c r="AQ188" s="16"/>
+      <c r="AH188" s="44"/>
+      <c r="AI188" s="28"/>
+      <c r="AJ188" s="45"/>
+      <c r="AK188" s="46"/>
+      <c r="AL188" s="28"/>
+      <c r="AM188" s="45"/>
+      <c r="AN188" s="47"/>
+      <c r="AO188" s="45"/>
+      <c r="AP188" s="45"/>
       <c r="AR188" s="1"/>
       <c r="AS188" s="1"/>
-      <c r="AT188" s="74"/>
-      <c r="AU188" s="75"/>
-      <c r="AV188" s="76"/>
-      <c r="AW188" s="77"/>
-      <c r="AX188" s="75"/>
-      <c r="AY188" s="76"/>
-      <c r="AZ188" s="78"/>
-      <c r="BA188" s="76"/>
-      <c r="BB188" s="76"/>
-      <c r="BC188" s="16"/>
+      <c r="AT188" s="44"/>
+      <c r="AU188" s="28"/>
+      <c r="AV188" s="45"/>
+      <c r="AW188" s="46"/>
+      <c r="AX188" s="28"/>
+      <c r="AY188" s="45"/>
+      <c r="AZ188" s="47"/>
+      <c r="BA188" s="45"/>
+      <c r="BB188" s="45"/>
       <c r="BD188" s="1"/>
       <c r="BE188" s="1"/>
-      <c r="BF188" s="74"/>
-      <c r="BG188" s="75"/>
-      <c r="BH188" s="76"/>
-      <c r="BI188" s="77"/>
-      <c r="BJ188" s="75"/>
-      <c r="BK188" s="76"/>
-      <c r="BL188" s="78"/>
-      <c r="BM188" s="76"/>
-      <c r="BN188" s="76"/>
-      <c r="BO188" s="16"/>
+      <c r="BF188" s="44"/>
+      <c r="BG188" s="28"/>
+      <c r="BH188" s="45"/>
+      <c r="BI188" s="46"/>
+      <c r="BJ188" s="28"/>
+      <c r="BK188" s="45"/>
+      <c r="BL188" s="47"/>
+      <c r="BM188" s="45"/>
+      <c r="BN188" s="45"/>
       <c r="BP188" s="1"/>
       <c r="BQ188" s="1"/>
-      <c r="BR188" s="74"/>
-      <c r="BS188" s="75"/>
-      <c r="BT188" s="76"/>
-      <c r="BU188" s="77"/>
-      <c r="BV188" s="75"/>
-      <c r="BW188" s="76"/>
-      <c r="BX188" s="78"/>
-      <c r="BY188" s="76"/>
-      <c r="BZ188" s="76"/>
-      <c r="CA188" s="16"/>
+      <c r="BR188" s="44"/>
+      <c r="BS188" s="28"/>
+      <c r="BT188" s="45"/>
+      <c r="BU188" s="46"/>
+      <c r="BV188" s="28"/>
+      <c r="BW188" s="45"/>
+      <c r="BX188" s="47"/>
+      <c r="BY188" s="45"/>
+      <c r="BZ188" s="45"/>
       <c r="CB188" s="1"/>
       <c r="CC188" s="1"/>
-      <c r="CD188" s="74"/>
-      <c r="CE188" s="75"/>
-      <c r="CF188" s="76"/>
-      <c r="CG188" s="77"/>
-      <c r="CH188" s="75"/>
-      <c r="CI188" s="76"/>
-      <c r="CJ188" s="78"/>
-      <c r="CK188" s="76"/>
-      <c r="CL188" s="76"/>
-      <c r="CM188" s="16"/>
+      <c r="CD188" s="44"/>
+      <c r="CE188" s="28"/>
+      <c r="CF188" s="45"/>
+      <c r="CG188" s="46"/>
+      <c r="CH188" s="28"/>
+      <c r="CI188" s="45"/>
+      <c r="CJ188" s="47"/>
+      <c r="CK188" s="45"/>
+      <c r="CL188" s="45"/>
       <c r="CN188" s="1"/>
       <c r="CO188" s="1"/>
-      <c r="CP188" s="74"/>
-      <c r="CQ188" s="75"/>
-      <c r="CR188" s="76"/>
-      <c r="CS188" s="77"/>
-      <c r="CT188" s="75"/>
-      <c r="CU188" s="76"/>
-      <c r="CV188" s="78"/>
-      <c r="CW188" s="76"/>
-      <c r="CX188" s="76"/>
-      <c r="CY188" s="16"/>
+      <c r="CP188" s="44"/>
+      <c r="CQ188" s="28"/>
+      <c r="CR188" s="45"/>
+      <c r="CS188" s="46"/>
+      <c r="CT188" s="28"/>
+      <c r="CU188" s="45"/>
+      <c r="CV188" s="47"/>
+      <c r="CW188" s="45"/>
+      <c r="CX188" s="45"/>
       <c r="CZ188" s="1"/>
       <c r="DA188" s="1"/>
-      <c r="DB188" s="74"/>
-      <c r="DC188" s="75"/>
-      <c r="DD188" s="76"/>
-      <c r="DE188" s="77"/>
-      <c r="DF188" s="75"/>
-      <c r="DG188" s="76"/>
-      <c r="DH188" s="78"/>
-      <c r="DI188" s="76"/>
-      <c r="DJ188" s="76"/>
-      <c r="DK188" s="16"/>
+      <c r="DB188" s="44"/>
+      <c r="DC188" s="28"/>
+      <c r="DD188" s="45"/>
+      <c r="DE188" s="46"/>
+      <c r="DF188" s="28"/>
+      <c r="DG188" s="45"/>
+      <c r="DH188" s="47"/>
+      <c r="DI188" s="45"/>
+      <c r="DJ188" s="45"/>
       <c r="DL188" s="1"/>
       <c r="DM188" s="1"/>
-      <c r="DN188" s="74"/>
-      <c r="DO188" s="75"/>
-      <c r="DP188" s="76"/>
-      <c r="DQ188" s="77"/>
-      <c r="DR188" s="75"/>
-      <c r="DS188" s="76"/>
-      <c r="DT188" s="78"/>
-      <c r="DU188" s="76"/>
-      <c r="DV188" s="76"/>
-      <c r="DW188" s="16"/>
+      <c r="DN188" s="44"/>
+      <c r="DO188" s="28"/>
+      <c r="DP188" s="45"/>
+      <c r="DQ188" s="46"/>
+      <c r="DR188" s="28"/>
+      <c r="DS188" s="45"/>
+      <c r="DT188" s="47"/>
+      <c r="DU188" s="45"/>
+      <c r="DV188" s="45"/>
       <c r="DX188" s="1"/>
       <c r="DY188" s="1"/>
-      <c r="DZ188" s="74"/>
-      <c r="EA188" s="75"/>
-      <c r="EB188" s="76"/>
-      <c r="EC188" s="77"/>
-      <c r="ED188" s="75"/>
-      <c r="EE188" s="76"/>
-      <c r="EF188" s="78"/>
-      <c r="EG188" s="76"/>
-      <c r="EH188" s="76"/>
-      <c r="EI188" s="16"/>
+      <c r="DZ188" s="44"/>
+      <c r="EA188" s="28"/>
+      <c r="EB188" s="45"/>
+      <c r="EC188" s="46"/>
+      <c r="ED188" s="28"/>
+      <c r="EE188" s="45"/>
+      <c r="EF188" s="47"/>
+      <c r="EG188" s="45"/>
+      <c r="EH188" s="45"/>
       <c r="EJ188" s="1"/>
       <c r="EK188" s="1"/>
-      <c r="EL188" s="74"/>
-      <c r="EM188" s="75"/>
-      <c r="EN188" s="76"/>
-      <c r="EO188" s="77"/>
-      <c r="EP188" s="75"/>
-      <c r="EQ188" s="76"/>
-      <c r="ER188" s="78"/>
-      <c r="ES188" s="76"/>
-      <c r="ET188" s="76"/>
-      <c r="EU188" s="16"/>
+      <c r="EL188" s="44"/>
+      <c r="EM188" s="28"/>
+      <c r="EN188" s="45"/>
+      <c r="EO188" s="46"/>
+      <c r="EP188" s="28"/>
+      <c r="EQ188" s="45"/>
+      <c r="ER188" s="47"/>
+      <c r="ES188" s="45"/>
+      <c r="ET188" s="45"/>
       <c r="EV188" s="1"/>
       <c r="EW188" s="1"/>
-      <c r="EX188" s="74"/>
-      <c r="EY188" s="75"/>
-      <c r="EZ188" s="76"/>
-      <c r="FA188" s="77"/>
-      <c r="FB188" s="75"/>
-      <c r="FC188" s="76"/>
-      <c r="FD188" s="78"/>
-      <c r="FE188" s="76"/>
-      <c r="FF188" s="76"/>
-      <c r="FG188" s="16"/>
+      <c r="EX188" s="44"/>
+      <c r="EY188" s="28"/>
+      <c r="EZ188" s="45"/>
+      <c r="FA188" s="46"/>
+      <c r="FB188" s="28"/>
+      <c r="FC188" s="45"/>
+      <c r="FD188" s="47"/>
+      <c r="FE188" s="45"/>
+      <c r="FF188" s="45"/>
       <c r="FH188" s="1"/>
       <c r="FI188" s="1"/>
-      <c r="FJ188" s="74"/>
-      <c r="FK188" s="75"/>
-      <c r="FL188" s="76"/>
-      <c r="FM188" s="77"/>
-      <c r="FN188" s="75"/>
-      <c r="FO188" s="76"/>
-      <c r="FP188" s="78"/>
-      <c r="FQ188" s="76"/>
-      <c r="FR188" s="76"/>
-      <c r="FS188" s="16"/>
+      <c r="FJ188" s="44"/>
+      <c r="FK188" s="28"/>
+      <c r="FL188" s="45"/>
+      <c r="FM188" s="46"/>
+      <c r="FN188" s="28"/>
+      <c r="FO188" s="45"/>
+      <c r="FP188" s="47"/>
+      <c r="FQ188" s="45"/>
+      <c r="FR188" s="45"/>
       <c r="FT188" s="1"/>
       <c r="FU188" s="1"/>
-      <c r="FV188" s="74"/>
-      <c r="FW188" s="75"/>
-      <c r="FX188" s="76"/>
-      <c r="FY188" s="77"/>
-      <c r="FZ188" s="75"/>
-      <c r="GA188" s="76"/>
-      <c r="GB188" s="78"/>
-      <c r="GC188" s="76"/>
-      <c r="GD188" s="76"/>
-      <c r="GE188" s="16"/>
+      <c r="FV188" s="44"/>
+      <c r="FW188" s="28"/>
+      <c r="FX188" s="45"/>
+      <c r="FY188" s="46"/>
+      <c r="FZ188" s="28"/>
+      <c r="GA188" s="45"/>
+      <c r="GB188" s="47"/>
+      <c r="GC188" s="45"/>
+      <c r="GD188" s="45"/>
       <c r="GF188" s="1"/>
       <c r="GG188" s="1"/>
-      <c r="GH188" s="74"/>
-      <c r="GI188" s="75"/>
-      <c r="GJ188" s="76"/>
-      <c r="GK188" s="77"/>
-      <c r="GL188" s="75"/>
-      <c r="GM188" s="76"/>
-      <c r="GN188" s="78"/>
-      <c r="GO188" s="76"/>
-      <c r="GP188" s="76"/>
-      <c r="GQ188" s="16"/>
+      <c r="GH188" s="44"/>
+      <c r="GI188" s="28"/>
+      <c r="GJ188" s="45"/>
+      <c r="GK188" s="46"/>
+      <c r="GL188" s="28"/>
+      <c r="GM188" s="45"/>
+      <c r="GN188" s="47"/>
+      <c r="GO188" s="45"/>
+      <c r="GP188" s="45"/>
       <c r="GR188" s="1"/>
       <c r="GS188" s="1"/>
-      <c r="GT188" s="74"/>
-      <c r="GU188" s="75"/>
-      <c r="GV188" s="76"/>
-      <c r="GW188" s="77"/>
-      <c r="GX188" s="75"/>
-      <c r="GY188" s="76"/>
-      <c r="GZ188" s="78"/>
-      <c r="HA188" s="76"/>
-      <c r="HB188" s="76"/>
-      <c r="HC188" s="16"/>
+      <c r="GT188" s="44"/>
+      <c r="GU188" s="28"/>
+      <c r="GV188" s="45"/>
+      <c r="GW188" s="46"/>
+      <c r="GX188" s="28"/>
+      <c r="GY188" s="45"/>
+      <c r="GZ188" s="47"/>
+      <c r="HA188" s="45"/>
+      <c r="HB188" s="45"/>
       <c r="HD188" s="1"/>
       <c r="HE188" s="1"/>
-      <c r="HF188" s="74"/>
-      <c r="HG188" s="75"/>
-      <c r="HH188" s="76"/>
-      <c r="HI188" s="77"/>
-      <c r="HJ188" s="75"/>
-      <c r="HK188" s="76"/>
-      <c r="HL188" s="78"/>
-      <c r="HM188" s="76"/>
-      <c r="HN188" s="76"/>
-      <c r="HO188" s="16"/>
+      <c r="HF188" s="44"/>
+      <c r="HG188" s="28"/>
+      <c r="HH188" s="45"/>
+      <c r="HI188" s="46"/>
+      <c r="HJ188" s="28"/>
+      <c r="HK188" s="45"/>
+      <c r="HL188" s="47"/>
+      <c r="HM188" s="45"/>
+      <c r="HN188" s="45"/>
       <c r="HP188" s="1"/>
       <c r="HQ188" s="1"/>
-      <c r="HR188" s="74"/>
-      <c r="HS188" s="75"/>
-      <c r="HT188" s="76"/>
-      <c r="HU188" s="77"/>
-      <c r="HV188" s="75"/>
-      <c r="HW188" s="76"/>
-      <c r="HX188" s="78"/>
-      <c r="HY188" s="76"/>
-      <c r="HZ188" s="76"/>
-      <c r="IA188" s="16"/>
+      <c r="HR188" s="44"/>
+      <c r="HS188" s="28"/>
+      <c r="HT188" s="45"/>
+      <c r="HU188" s="46"/>
+      <c r="HV188" s="28"/>
+      <c r="HW188" s="45"/>
+      <c r="HX188" s="47"/>
+      <c r="HY188" s="45"/>
+      <c r="HZ188" s="45"/>
       <c r="IB188" s="1"/>
       <c r="IC188" s="1"/>
-      <c r="ID188" s="74"/>
-      <c r="IE188" s="75"/>
-      <c r="IF188" s="76"/>
-      <c r="IG188" s="77"/>
-      <c r="IH188" s="75"/>
-      <c r="II188" s="76"/>
-      <c r="IJ188" s="78"/>
-      <c r="IK188" s="76"/>
-      <c r="IL188" s="76"/>
-      <c r="IM188" s="16"/>
+      <c r="ID188" s="44"/>
+      <c r="IE188" s="28"/>
+      <c r="IF188" s="45"/>
+      <c r="IG188" s="46"/>
+      <c r="IH188" s="28"/>
+      <c r="II188" s="45"/>
+      <c r="IJ188" s="47"/>
+      <c r="IK188" s="45"/>
+      <c r="IL188" s="45"/>
       <c r="IN188" s="1"/>
       <c r="IO188" s="1"/>
-      <c r="IP188" s="74"/>
-      <c r="IQ188" s="75"/>
-      <c r="IR188" s="76"/>
-      <c r="IS188" s="77"/>
-    </row>
-    <row r="189" s="17" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
-      <c r="A189" s="24">
+      <c r="IP188" s="44"/>
+      <c r="IQ188" s="28"/>
+      <c r="IR188" s="45"/>
+      <c r="IS188" s="46"/>
+    </row>
+    <row r="189" s="14" customFormat="1" ht="21.95" customHeight="1" spans="1:253">
+      <c r="A189" s="21">
         <v>187</v>
       </c>
-      <c r="B189" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="37" t="s">
+      <c r="B189" s="33" t="s">
         <v>469</v>
+      </c>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="27" t="s">
+        <v>470</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="79"/>
-      <c r="K189" s="80"/>
-      <c r="L189" s="81"/>
-      <c r="M189" s="82"/>
-      <c r="N189" s="80"/>
-      <c r="O189" s="81"/>
-      <c r="P189" s="83"/>
-      <c r="Q189" s="81"/>
-      <c r="R189" s="81"/>
-      <c r="S189" s="16"/>
+      <c r="J189" s="44"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="45"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="28"/>
+      <c r="O189" s="45"/>
+      <c r="P189" s="47"/>
+      <c r="Q189" s="45"/>
+      <c r="R189" s="45"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
-      <c r="V189" s="79"/>
-      <c r="W189" s="80"/>
-      <c r="X189" s="81"/>
-      <c r="Y189" s="82"/>
-      <c r="Z189" s="80"/>
-      <c r="AA189" s="81"/>
-      <c r="AB189" s="83"/>
-      <c r="AC189" s="81"/>
-      <c r="AD189" s="81"/>
-      <c r="AE189" s="16"/>
+      <c r="V189" s="44"/>
+      <c r="W189" s="28"/>
+      <c r="X189" s="45"/>
+      <c r="Y189" s="46"/>
+      <c r="Z189" s="28"/>
+      <c r="AA189" s="45"/>
+      <c r="AB189" s="47"/>
+      <c r="AC189" s="45"/>
+      <c r="AD189" s="45"/>
       <c r="AF189" s="1"/>
       <c r="AG189" s="1"/>
-      <c r="AH189" s="79"/>
-      <c r="AI189" s="80"/>
-      <c r="AJ189" s="81"/>
-      <c r="AK189" s="82"/>
-      <c r="AL189" s="80"/>
-      <c r="AM189" s="81"/>
-      <c r="AN189" s="83"/>
-      <c r="AO189" s="81"/>
-      <c r="AP189" s="81"/>
-      <c r="AQ189" s="16"/>
+      <c r="AH189" s="44"/>
+      <c r="AI189" s="28"/>
+      <c r="AJ189" s="45"/>
+      <c r="AK189" s="46"/>
+      <c r="AL189" s="28"/>
+      <c r="AM189" s="45"/>
+      <c r="AN189" s="47"/>
+      <c r="AO189" s="45"/>
+      <c r="AP189" s="45"/>
       <c r="AR189" s="1"/>
       <c r="AS189" s="1"/>
-      <c r="AT189" s="79"/>
-      <c r="AU189" s="80"/>
-      <c r="AV189" s="81"/>
-      <c r="AW189" s="82"/>
-      <c r="AX189" s="80"/>
-      <c r="AY189" s="81"/>
-      <c r="AZ189" s="83"/>
-      <c r="BA189" s="81"/>
-      <c r="BB189" s="81"/>
-      <c r="BC189" s="16"/>
+      <c r="AT189" s="44"/>
+      <c r="AU189" s="28"/>
+      <c r="AV189" s="45"/>
+      <c r="AW189" s="46"/>
+      <c r="AX189" s="28"/>
+      <c r="AY189" s="45"/>
+      <c r="AZ189" s="47"/>
+      <c r="BA189" s="45"/>
+      <c r="BB189" s="45"/>
       <c r="BD189" s="1"/>
       <c r="BE189" s="1"/>
-      <c r="BF189" s="79"/>
-      <c r="BG189" s="80"/>
-      <c r="BH189" s="81"/>
-      <c r="BI189" s="82"/>
-      <c r="BJ189" s="80"/>
-      <c r="BK189" s="81"/>
-      <c r="BL189" s="83"/>
-      <c r="BM189" s="81"/>
-      <c r="BN189" s="81"/>
-      <c r="BO189" s="16"/>
+      <c r="BF189" s="44"/>
+      <c r="BG189" s="28"/>
+      <c r="BH189" s="45"/>
+      <c r="BI189" s="46"/>
+      <c r="BJ189" s="28"/>
+      <c r="BK189" s="45"/>
+      <c r="BL189" s="47"/>
+      <c r="BM189" s="45"/>
+      <c r="BN189" s="45"/>
       <c r="BP189" s="1"/>
       <c r="BQ189" s="1"/>
-      <c r="BR189" s="79"/>
-      <c r="BS189" s="80"/>
-      <c r="BT189" s="81"/>
-      <c r="BU189" s="82"/>
-      <c r="BV189" s="80"/>
-      <c r="BW189" s="81"/>
-      <c r="BX189" s="83"/>
-      <c r="BY189" s="81"/>
-      <c r="BZ189" s="81"/>
-      <c r="CA189" s="16"/>
+      <c r="BR189" s="44"/>
+      <c r="BS189" s="28"/>
+      <c r="BT189" s="45"/>
+      <c r="BU189" s="46"/>
+      <c r="BV189" s="28"/>
+      <c r="BW189" s="45"/>
+      <c r="BX189" s="47"/>
+      <c r="BY189" s="45"/>
+      <c r="BZ189" s="45"/>
       <c r="CB189" s="1"/>
       <c r="CC189" s="1"/>
-      <c r="CD189" s="79"/>
-      <c r="CE189" s="80"/>
-      <c r="CF189" s="81"/>
-      <c r="CG189" s="82"/>
-      <c r="CH189" s="80"/>
-      <c r="CI189" s="81"/>
-      <c r="CJ189" s="83"/>
-      <c r="CK189" s="81"/>
-      <c r="CL189" s="81"/>
-      <c r="CM189" s="16"/>
+      <c r="CD189" s="44"/>
+      <c r="CE189" s="28"/>
+      <c r="CF189" s="45"/>
+      <c r="CG189" s="46"/>
+      <c r="CH189" s="28"/>
+      <c r="CI189" s="45"/>
+      <c r="CJ189" s="47"/>
+      <c r="CK189" s="45"/>
+      <c r="CL189" s="45"/>
       <c r="CN189" s="1"/>
       <c r="CO189" s="1"/>
-      <c r="CP189" s="79"/>
-      <c r="CQ189" s="80"/>
-      <c r="CR189" s="81"/>
-      <c r="CS189" s="82"/>
-      <c r="CT189" s="80"/>
-      <c r="CU189" s="81"/>
-      <c r="CV189" s="83"/>
-      <c r="CW189" s="81"/>
-      <c r="CX189" s="81"/>
-      <c r="CY189" s="16"/>
+      <c r="CP189" s="44"/>
+      <c r="CQ189" s="28"/>
+      <c r="CR189" s="45"/>
+      <c r="CS189" s="46"/>
+      <c r="CT189" s="28"/>
+      <c r="CU189" s="45"/>
+      <c r="CV189" s="47"/>
+      <c r="CW189" s="45"/>
+      <c r="CX189" s="45"/>
       <c r="CZ189" s="1"/>
       <c r="DA189" s="1"/>
-      <c r="DB189" s="79"/>
-      <c r="DC189" s="80"/>
-      <c r="DD189" s="81"/>
-      <c r="DE189" s="82"/>
-      <c r="DF189" s="80"/>
-      <c r="DG189" s="81"/>
-      <c r="DH189" s="83"/>
-      <c r="DI189" s="81"/>
-      <c r="DJ189" s="81"/>
-      <c r="DK189" s="16"/>
+      <c r="DB189" s="44"/>
+      <c r="DC189" s="28"/>
+      <c r="DD189" s="45"/>
+      <c r="DE189" s="46"/>
+      <c r="DF189" s="28"/>
+      <c r="DG189" s="45"/>
+      <c r="DH189" s="47"/>
+      <c r="DI189" s="45"/>
+      <c r="DJ189" s="45"/>
       <c r="DL189" s="1"/>
       <c r="DM189" s="1"/>
-      <c r="DN189" s="79"/>
-      <c r="DO189" s="80"/>
-      <c r="DP189" s="81"/>
-      <c r="DQ189" s="82"/>
-      <c r="DR189" s="80"/>
-      <c r="DS189" s="81"/>
-      <c r="DT189" s="83"/>
-      <c r="DU189" s="81"/>
-      <c r="DV189" s="81"/>
-      <c r="DW189" s="16"/>
+      <c r="DN189" s="44"/>
+      <c r="DO189" s="28"/>
+      <c r="DP189" s="45"/>
+      <c r="DQ189" s="46"/>
+      <c r="DR189" s="28"/>
+      <c r="DS189" s="45"/>
+      <c r="DT189" s="47"/>
+      <c r="DU189" s="45"/>
+      <c r="DV189" s="45"/>
       <c r="DX189" s="1"/>
       <c r="DY189" s="1"/>
-      <c r="DZ189" s="79"/>
-      <c r="EA189" s="80"/>
-      <c r="EB189" s="81"/>
-      <c r="EC189" s="82"/>
-      <c r="ED189" s="80"/>
-      <c r="EE189" s="81"/>
-      <c r="EF189" s="83"/>
-      <c r="EG189" s="81"/>
-      <c r="EH189" s="81"/>
-      <c r="EI189" s="16"/>
+      <c r="DZ189" s="44"/>
+      <c r="EA189" s="28"/>
+      <c r="EB189" s="45"/>
+      <c r="EC189" s="46"/>
+      <c r="ED189" s="28"/>
+      <c r="EE189" s="45"/>
+      <c r="EF189" s="47"/>
+      <c r="EG189" s="45"/>
+      <c r="EH189" s="45"/>
       <c r="EJ189" s="1"/>
       <c r="EK189" s="1"/>
-      <c r="EL189" s="79"/>
-      <c r="EM189" s="80"/>
-      <c r="EN189" s="81"/>
-      <c r="EO189" s="82"/>
-      <c r="EP189" s="80"/>
-      <c r="EQ189" s="81"/>
-      <c r="ER189" s="83"/>
-      <c r="ES189" s="81"/>
-      <c r="ET189" s="81"/>
-      <c r="EU189" s="16"/>
+      <c r="EL189" s="44"/>
+      <c r="EM189" s="28"/>
+      <c r="EN189" s="45"/>
+      <c r="EO189" s="46"/>
+      <c r="EP189" s="28"/>
+      <c r="EQ189" s="45"/>
+      <c r="ER189" s="47"/>
+      <c r="ES189" s="45"/>
+      <c r="ET189" s="45"/>
       <c r="EV189" s="1"/>
       <c r="EW189" s="1"/>
-      <c r="EX189" s="79"/>
-      <c r="EY189" s="80"/>
-      <c r="EZ189" s="81"/>
-      <c r="FA189" s="82"/>
-      <c r="FB189" s="80"/>
-      <c r="FC189" s="81"/>
-      <c r="FD189" s="83"/>
-      <c r="FE189" s="81"/>
-      <c r="FF189" s="81"/>
-      <c r="FG189" s="16"/>
+      <c r="EX189" s="44"/>
+      <c r="EY189" s="28"/>
+      <c r="EZ189" s="45"/>
+      <c r="FA189" s="46"/>
+      <c r="FB189" s="28"/>
+      <c r="FC189" s="45"/>
+      <c r="FD189" s="47"/>
+      <c r="FE189" s="45"/>
+      <c r="FF189" s="45"/>
       <c r="FH189" s="1"/>
       <c r="FI189" s="1"/>
-      <c r="FJ189" s="79"/>
-      <c r="FK189" s="80"/>
-      <c r="FL189" s="81"/>
-      <c r="FM189" s="82"/>
-      <c r="FN189" s="80"/>
-      <c r="FO189" s="81"/>
-      <c r="FP189" s="83"/>
-      <c r="FQ189" s="81"/>
-      <c r="FR189" s="81"/>
-      <c r="FS189" s="16"/>
+      <c r="FJ189" s="44"/>
+      <c r="FK189" s="28"/>
+      <c r="FL189" s="45"/>
+      <c r="FM189" s="46"/>
+      <c r="FN189" s="28"/>
+      <c r="FO189" s="45"/>
+      <c r="FP189" s="47"/>
+      <c r="FQ189" s="45"/>
+      <c r="FR189" s="45"/>
       <c r="FT189" s="1"/>
       <c r="FU189" s="1"/>
-      <c r="FV189" s="79"/>
-      <c r="FW189" s="80"/>
-      <c r="FX189" s="81"/>
-      <c r="FY189" s="82"/>
-      <c r="FZ189" s="80"/>
-      <c r="GA189" s="81"/>
-      <c r="GB189" s="83"/>
-      <c r="GC189" s="81"/>
-      <c r="GD189" s="81"/>
-      <c r="GE189" s="16"/>
+      <c r="FV189" s="44"/>
+      <c r="FW189" s="28"/>
+      <c r="FX189" s="45"/>
+      <c r="FY189" s="46"/>
+      <c r="FZ189" s="28"/>
+      <c r="GA189" s="45"/>
+      <c r="GB189" s="47"/>
+      <c r="GC189" s="45"/>
+      <c r="GD189" s="45"/>
       <c r="GF189" s="1"/>
       <c r="GG189" s="1"/>
-      <c r="GH189" s="79"/>
-      <c r="GI189" s="80"/>
-      <c r="GJ189" s="81"/>
-      <c r="GK189" s="82"/>
-      <c r="GL189" s="80"/>
-      <c r="GM189" s="81"/>
-      <c r="GN189" s="83"/>
-      <c r="GO189" s="81"/>
-      <c r="GP189" s="81"/>
-      <c r="GQ189" s="16"/>
+      <c r="GH189" s="44"/>
+      <c r="GI189" s="28"/>
+      <c r="GJ189" s="45"/>
+      <c r="GK189" s="46"/>
+      <c r="GL189" s="28"/>
+      <c r="GM189" s="45"/>
+      <c r="GN189" s="47"/>
+      <c r="GO189" s="45"/>
+      <c r="GP189" s="45"/>
       <c r="GR189" s="1"/>
       <c r="GS189" s="1"/>
-      <c r="GT189" s="79"/>
-      <c r="GU189" s="80"/>
-      <c r="GV189" s="81"/>
-      <c r="GW189" s="82"/>
-      <c r="GX189" s="80"/>
-      <c r="GY189" s="81"/>
-      <c r="GZ189" s="83"/>
-      <c r="HA189" s="81"/>
-      <c r="HB189" s="81"/>
-      <c r="HC189" s="16"/>
+      <c r="GT189" s="44"/>
+      <c r="GU189" s="28"/>
+      <c r="GV189" s="45"/>
+      <c r="GW189" s="46"/>
+      <c r="GX189" s="28"/>
+      <c r="GY189" s="45"/>
+      <c r="GZ189" s="47"/>
+      <c r="HA189" s="45"/>
+      <c r="HB189" s="45"/>
       <c r="HD189" s="1"/>
       <c r="HE189" s="1"/>
-      <c r="HF189" s="79"/>
-      <c r="HG189" s="80"/>
-      <c r="HH189" s="81"/>
-      <c r="HI189" s="82"/>
-      <c r="HJ189" s="80"/>
-      <c r="HK189" s="81"/>
-      <c r="HL189" s="83"/>
-      <c r="HM189" s="81"/>
-      <c r="HN189" s="81"/>
-      <c r="HO189" s="16"/>
+      <c r="HF189" s="44"/>
+      <c r="HG189" s="28"/>
+      <c r="HH189" s="45"/>
+      <c r="HI189" s="46"/>
+      <c r="HJ189" s="28"/>
+      <c r="HK189" s="45"/>
+      <c r="HL189" s="47"/>
+      <c r="HM189" s="45"/>
+      <c r="HN189" s="45"/>
       <c r="HP189" s="1"/>
       <c r="HQ189" s="1"/>
-      <c r="HR189" s="79"/>
-      <c r="HS189" s="80"/>
-      <c r="HT189" s="81"/>
-      <c r="HU189" s="82"/>
-      <c r="HV189" s="80"/>
-      <c r="HW189" s="81"/>
-      <c r="HX189" s="83"/>
-      <c r="HY189" s="81"/>
-      <c r="HZ189" s="81"/>
-      <c r="IA189" s="16"/>
+      <c r="HR189" s="44"/>
+      <c r="HS189" s="28"/>
+      <c r="HT189" s="45"/>
+      <c r="HU189" s="46"/>
+      <c r="HV189" s="28"/>
+      <c r="HW189" s="45"/>
+      <c r="HX189" s="47"/>
+      <c r="HY189" s="45"/>
+      <c r="HZ189" s="45"/>
       <c r="IB189" s="1"/>
       <c r="IC189" s="1"/>
-      <c r="ID189" s="79"/>
-      <c r="IE189" s="80"/>
-      <c r="IF189" s="81"/>
-      <c r="IG189" s="82"/>
-      <c r="IH189" s="80"/>
-      <c r="II189" s="81"/>
-      <c r="IJ189" s="83"/>
-      <c r="IK189" s="81"/>
-      <c r="IL189" s="81"/>
-      <c r="IM189" s="16"/>
+      <c r="ID189" s="44"/>
+      <c r="IE189" s="28"/>
+      <c r="IF189" s="45"/>
+      <c r="IG189" s="46"/>
+      <c r="IH189" s="28"/>
+      <c r="II189" s="45"/>
+      <c r="IJ189" s="47"/>
+      <c r="IK189" s="45"/>
+      <c r="IL189" s="45"/>
       <c r="IN189" s="1"/>
       <c r="IO189" s="1"/>
-      <c r="IP189" s="79"/>
-      <c r="IQ189" s="80"/>
-      <c r="IR189" s="81"/>
-      <c r="IS189" s="82"/>
+      <c r="IP189" s="44"/>
+      <c r="IQ189" s="28"/>
+      <c r="IR189" s="45"/>
+      <c r="IS189" s="46"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A190" s="24">
+      <c r="A190" s="21">
         <v>188</v>
       </c>
-      <c r="B190" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="C190" s="28" t="s">
+      <c r="B190" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="C190" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="E190" s="28">
+      <c r="D190" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E190" s="24">
         <v>85290088</v>
       </c>
-      <c r="F190" s="37" t="s">
-        <v>473</v>
+      <c r="F190" s="27" t="s">
+        <v>474</v>
       </c>
       <c r="G190" s="5"/>
     </row>
     <row r="191" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A191" s="24">
+      <c r="A191" s="21">
         <v>189</v>
       </c>
-      <c r="B191" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="C191" s="28" t="s">
+      <c r="B191" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="D191" s="29" t="s">
+      <c r="C191" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="E191" s="28">
+      <c r="D191" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E191" s="24">
         <v>85290038</v>
       </c>
-      <c r="F191" s="26" t="s">
+      <c r="F191" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="G191" s="14"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A192" s="21">
+        <v>190</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E192" s="24">
+        <v>87357732</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A193" s="21">
+        <v>191</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D193" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E193" s="24">
+        <v>85290042</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A194" s="21">
+        <v>192</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D194" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G191" s="73"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A192" s="24">
-        <v>190</v>
-      </c>
-      <c r="B192" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="C192" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D192" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E192" s="28">
-        <v>87357732</v>
-      </c>
-      <c r="F192" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="G192" s="5"/>
-    </row>
-    <row r="193" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A193" s="24">
-        <v>191</v>
-      </c>
-      <c r="B193" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="C193" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D193" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E193" s="28">
-        <v>85290042</v>
-      </c>
-      <c r="F193" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="G193" s="55"/>
-    </row>
-    <row r="194" s="5" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A194" s="24">
-        <v>192</v>
-      </c>
-      <c r="B194" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D194" s="29" t="s">
+      <c r="E194" s="24">
+        <v>85290138</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G194" s="14"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A195" s="21">
+        <v>193</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C195" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="E194" s="28">
-        <v>85290138</v>
-      </c>
-      <c r="F194" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="G194" s="73"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A195" s="24">
-        <v>193</v>
-      </c>
-      <c r="B195" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="C195" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D195" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="E195" s="28">
+      <c r="D195" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="E195" s="24">
         <v>85290509</v>
       </c>
-      <c r="F195" s="37" t="s">
+      <c r="F195" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="G195" s="14"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A196" s="21">
+        <v>194</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D196" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="G195" s="34"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A196" s="24">
-        <v>194</v>
-      </c>
-      <c r="B196" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="C196" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D196" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="E196" s="28">
+      <c r="E196" s="24">
         <v>85290509</v>
       </c>
-      <c r="F196" s="37" t="s">
+      <c r="F196" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="G196" s="15"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A197" s="21">
+        <v>195</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C197" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="G196" s="18"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A197" s="24">
-        <v>195</v>
-      </c>
-      <c r="B197" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="C197" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D197" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="E197" s="28">
+      <c r="D197" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="E197" s="24">
         <v>85290509</v>
       </c>
-      <c r="F197" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="G197" s="18"/>
+      <c r="F197" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="G197" s="15"/>
     </row>
     <row r="198" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A198" s="24">
+      <c r="A198" s="21">
         <v>196</v>
       </c>
-      <c r="B198" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="C198" s="28" t="s">
+      <c r="B198" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="C198" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="E198" s="28">
+      <c r="D198" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E198" s="24">
         <v>85290675</v>
       </c>
-      <c r="F198" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="G198" s="36"/>
+      <c r="F198" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="G198" s="15"/>
     </row>
     <row r="199" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A199" s="24">
+      <c r="A199" s="21">
         <v>197</v>
       </c>
-      <c r="B199" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="C199" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="D199" s="84"/>
-      <c r="E199" s="50"/>
-      <c r="F199" s="37" t="s">
+      <c r="B199" s="31" t="s">
         <v>498</v>
       </c>
+      <c r="C199" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="D199" s="48"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="27" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A200" s="24">
+      <c r="A200" s="21">
         <v>198</v>
       </c>
-      <c r="B200" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="C200" s="28" t="s">
+      <c r="B200" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="D200" s="29"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="37" t="s">
+      <c r="C200" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="G200" s="11"/>
-    </row>
-    <row r="201" s="11" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A201" s="24">
+      <c r="D200" s="25"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" s="10" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A201" s="21">
         <v>199</v>
       </c>
-      <c r="B201" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="C201" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D201" s="31" t="s">
+      <c r="B201" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="E201" s="28">
+      <c r="C201" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="E201" s="24">
         <v>85290086</v>
       </c>
-      <c r="F201" s="37" t="s">
+      <c r="F201" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="G201" s="14"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A202" s="21">
+        <v>200</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D202" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="G201" s="73"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A202" s="24">
-        <v>200</v>
-      </c>
-      <c r="B202" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C202" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D202" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="E202" s="28">
+      <c r="E202" s="24">
         <v>85290086</v>
       </c>
-      <c r="F202" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="G202" s="18"/>
+      <c r="F202" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="G202" s="15"/>
     </row>
     <row r="203" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A203" s="24">
+      <c r="A203" s="21">
         <v>201</v>
       </c>
-      <c r="B203" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D203" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="E203" s="28">
+      <c r="B203" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="E203" s="24">
         <v>85290086</v>
       </c>
-      <c r="F203" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="G203" s="48"/>
+      <c r="F203" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="G203" s="15"/>
     </row>
     <row r="204" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:7">
-      <c r="A204" s="24">
+      <c r="A204" s="21">
         <v>202</v>
       </c>
-      <c r="B204" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="C204" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D204" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="E204" s="28">
+      <c r="B204" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" s="24">
         <v>85290086</v>
       </c>
-      <c r="F204" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="G204" s="36"/>
+      <c r="F204" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="G204" s="15"/>
     </row>
     <row r="205" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A205" s="24">
+      <c r="A205" s="21">
         <v>203</v>
       </c>
-      <c r="B205" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="C205" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D205" s="29" t="s">
+      <c r="B205" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="E205" s="28">
+      <c r="C205" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E205" s="24">
         <v>88320046</v>
       </c>
-      <c r="F205" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="G205" s="13"/>
-    </row>
-    <row r="206" s="13" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A206" s="24">
+      <c r="F205" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" s="12" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
+      <c r="A206" s="21">
         <v>204</v>
       </c>
-      <c r="B206" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="C206" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D206" s="29" t="s">
+      <c r="B206" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="E206" s="28">
+      <c r="C206" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E206" s="24">
         <v>88320361</v>
       </c>
-      <c r="F206" s="37" t="s">
+      <c r="F206" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" s="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A207" s="21">
+        <v>205</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D207" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="G206" s="63"/>
-    </row>
-    <row r="207" s="11" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A207" s="24">
-        <v>205</v>
-      </c>
-      <c r="B207" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="C207" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D207" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E207" s="28">
+      <c r="E207" s="24">
         <v>88320361</v>
       </c>
-      <c r="F207" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="G207" s="63"/>
-    </row>
-    <row r="208" s="11" customFormat="1" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A208" s="24">
+      <c r="F207" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="208" s="10" customFormat="1" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A208" s="21">
         <v>206</v>
       </c>
-      <c r="B208" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="C208" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D208" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E208" s="28">
+      <c r="B208" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E208" s="24">
         <v>88320361</v>
       </c>
-      <c r="F208" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="G208" s="73"/>
+      <c r="F208" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="G208" s="14"/>
     </row>
     <row r="209" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A209" s="24">
+      <c r="A209" s="21">
         <v>207</v>
       </c>
-      <c r="B209" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="C209" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D209" s="31" t="s">
+      <c r="B209" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="E209" s="50"/>
-      <c r="F209" s="44" t="s">
+      <c r="C209" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D209" s="26" t="s">
         <v>523</v>
+      </c>
+      <c r="E209" s="31"/>
+      <c r="F209" s="27" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
